--- a/20.10.2023/followUser/FollowData.xlsx
+++ b/20.10.2023/followUser/FollowData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>lizstewart99__</t>
   </si>
@@ -84,6 +84,39 @@
   </si>
   <si>
     <t>crazypriyalovely07</t>
+  </si>
+  <si>
+    <t>gayathri7340</t>
+  </si>
+  <si>
+    <t>_r_e_x.____</t>
+  </si>
+  <si>
+    <t>21.8430758</t>
+  </si>
+  <si>
+    <t>prem_dhashna</t>
+  </si>
+  <si>
+    <t>_thamizh_27</t>
+  </si>
+  <si>
+    <t>govardhanan_m</t>
+  </si>
+  <si>
+    <t>_.gokul_dg._</t>
+  </si>
+  <si>
+    <t>jamaal_sharief</t>
+  </si>
+  <si>
+    <t>parkavi_kalyan</t>
+  </si>
+  <si>
+    <t>karanraje17</t>
+  </si>
+  <si>
+    <t>mano_18888</t>
   </si>
 </sst>
 </file>
@@ -402,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -513,6 +546,61 @@
         <v>19</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
